--- a/Excel/20230210_SYMBOLタウンリスト.xlsx
+++ b/Excel/20230210_SYMBOLタウンリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\git\csharp\nagexym\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E70E8-3A4D-4B96-BEDD-B94E481A5CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B34444C-7D3F-4C9A-B3C3-8F29FDD609A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1068">
   <si>
     <t>名前</t>
   </si>
@@ -3677,7 +3677,9 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9597,7 +9599,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>1064</v>
       </c>
@@ -9612,7 +9614,12 @@
         <v>1067</v>
       </c>
       <c r="F271" s="6"/>
-      <c r="G271" s="6"/>
+      <c r="G271" s="6">
+        <v>1</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="272" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="273" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
